--- a/物流单录入模板.xlsx
+++ b/物流单录入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\郭乐源\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\广西永湘物流有限公司\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018DC0C6-FF54-4EE4-BA2F-C02B149A5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D1A50C-4B82-4D99-8A21-9FC904D4E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{329E0355-2362-4A20-B8B2-AA1745D41AB6}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +261,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,7 +310,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +633,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -746,198 +765,198 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>44932</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>44942</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2">
+      <c r="Q2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>44932</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>44942</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="Q3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>10</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>44982</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>44982</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>5</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="3" t="s">
         <v>37</v>
       </c>
     </row>

--- a/物流单录入模板.xlsx
+++ b/物流单录入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\广西永湘物流有限公司\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F7746-6642-4614-A734-1DEBDB50707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4C43A-A53A-4E2D-B239-425A5628B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,36 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
-    <t>物流单合同编号（“自提”请填写销售合同号）</t>
-  </si>
-  <si>
-    <t>销售/加工单合同编号（运往自家仓库请填写“000”）</t>
-  </si>
-  <si>
-    <t>己方公司名称</t>
-  </si>
-  <si>
-    <t>物流合同总重量</t>
-  </si>
-  <si>
-    <t>货物单位（斤/吨）</t>
-  </si>
-  <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>榨季</t>
-  </si>
-  <si>
-    <t>物流单类型（0：加工单  1：销售单）</t>
-  </si>
-  <si>
-    <t>采购/加工合同编号（运往自家仓库请填写“000”）</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
     <t>载货量</t>
   </si>
   <si>
@@ -142,12 +112,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>出库日期
-（格式为xxxx-xx-xx）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>取货厂名（自家仓库出货填写自家仓库）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单合同编号（“自提”请填写销售合同号）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售/加工单合同编号（运往自家仓库请填写“000”）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方公司名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流合同总重量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物单位（斤/吨）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨季</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单类型（0：加工单  1：销售单）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购/加工合同编号（自家仓库出货请填写“000”）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库日期（格式为xxxx-xx-xx）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -569,231 +578,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.2109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.35546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35.35546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46.35546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.35546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="46.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.35546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.35546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.35546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" style="2" customWidth="1"/>
-    <col min="24" max="25" width="12.35546875" style="2" customWidth="1"/>
-    <col min="26" max="27" width="9.85546875" style="2" customWidth="1"/>
-    <col min="28" max="30" width="12.35546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="39.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="23.85546875" style="2" customWidth="1"/>
-    <col min="34" max="35" width="12.35546875" style="2" customWidth="1"/>
-    <col min="36" max="37" width="9.85546875" style="2" customWidth="1"/>
-    <col min="38" max="40" width="12.35546875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="39.7109375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" style="2" customWidth="1"/>
-    <col min="43" max="43" width="23.85546875" style="2" customWidth="1"/>
-    <col min="44" max="45" width="12.35546875" style="2" customWidth="1"/>
-    <col min="46" max="47" width="9.85546875" style="2" customWidth="1"/>
-    <col min="48" max="50" width="12.35546875" style="2" customWidth="1"/>
-    <col min="51" max="51" width="39.7109375" style="2" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" style="2" customWidth="1"/>
-    <col min="53" max="53" width="23.85546875" style="2" customWidth="1"/>
-    <col min="54" max="55" width="12.35546875" style="2" customWidth="1"/>
-    <col min="56" max="57" width="9.85546875" style="2" customWidth="1"/>
-    <col min="58" max="60" width="12.35546875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="39.7109375" style="2" customWidth="1"/>
-    <col min="62" max="62" width="14.2109375" style="2" customWidth="1"/>
-    <col min="63" max="63" width="17.2109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="29.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.875" style="2" customWidth="1"/>
+    <col min="24" max="25" width="12.375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.875" style="2" customWidth="1"/>
+    <col min="28" max="30" width="12.375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="39.75" style="2" customWidth="1"/>
+    <col min="32" max="32" width="19.75" style="2" customWidth="1"/>
+    <col min="33" max="33" width="23.875" style="2" customWidth="1"/>
+    <col min="34" max="35" width="12.375" style="2" customWidth="1"/>
+    <col min="36" max="37" width="9.875" style="2" customWidth="1"/>
+    <col min="38" max="40" width="12.375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="39.75" style="2" customWidth="1"/>
+    <col min="42" max="42" width="19.75" style="2" customWidth="1"/>
+    <col min="43" max="43" width="23.875" style="2" customWidth="1"/>
+    <col min="44" max="45" width="12.375" style="2" customWidth="1"/>
+    <col min="46" max="47" width="9.875" style="2" customWidth="1"/>
+    <col min="48" max="50" width="12.375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="39.75" style="2" customWidth="1"/>
+    <col min="52" max="52" width="19.75" style="2" customWidth="1"/>
+    <col min="53" max="53" width="23.875" style="2" customWidth="1"/>
+    <col min="54" max="55" width="12.375" style="2" customWidth="1"/>
+    <col min="56" max="57" width="9.875" style="2" customWidth="1"/>
+    <col min="58" max="60" width="12.375" style="2" customWidth="1"/>
+    <col min="61" max="61" width="39.75" style="2" customWidth="1"/>
+    <col min="62" max="62" width="14.25" style="2" customWidth="1"/>
+    <col min="63" max="63" width="17.25" style="2" customWidth="1"/>
     <col min="64" max="65" width="9" style="2"/>
-    <col min="66" max="66" width="7.35546875" style="2" customWidth="1"/>
+    <col min="66" max="66" width="7.375" style="2" customWidth="1"/>
     <col min="67" max="70" width="9" style="2"/>
-    <col min="71" max="71" width="28.7109375" style="2" customWidth="1"/>
-    <col min="72" max="72" width="14.2109375" style="2" customWidth="1"/>
-    <col min="73" max="73" width="17.2109375" style="2" customWidth="1"/>
+    <col min="71" max="71" width="28.75" style="2" customWidth="1"/>
+    <col min="72" max="72" width="14.25" style="2" customWidth="1"/>
+    <col min="73" max="73" width="17.25" style="2" customWidth="1"/>
     <col min="74" max="80" width="9" style="2"/>
-    <col min="81" max="81" width="28.7109375" style="2" customWidth="1"/>
-    <col min="82" max="82" width="14.2109375" style="2" customWidth="1"/>
-    <col min="83" max="83" width="17.2109375" style="2" customWidth="1"/>
+    <col min="81" max="81" width="28.75" style="2" customWidth="1"/>
+    <col min="82" max="82" width="14.25" style="2" customWidth="1"/>
+    <col min="83" max="83" width="17.25" style="2" customWidth="1"/>
     <col min="84" max="90" width="9" style="2"/>
-    <col min="91" max="91" width="28.7109375" style="2" customWidth="1"/>
-    <col min="92" max="92" width="14.2109375" style="2" customWidth="1"/>
-    <col min="93" max="93" width="17.2109375" style="2" customWidth="1"/>
+    <col min="91" max="91" width="28.75" style="2" customWidth="1"/>
+    <col min="92" max="92" width="14.25" style="2" customWidth="1"/>
+    <col min="93" max="93" width="17.25" style="2" customWidth="1"/>
     <col min="94" max="100" width="9" style="2"/>
-    <col min="101" max="101" width="28.7109375" style="2" customWidth="1"/>
-    <col min="102" max="102" width="14.2109375" style="2" customWidth="1"/>
-    <col min="103" max="103" width="17.2109375" style="2" customWidth="1"/>
+    <col min="101" max="101" width="28.75" style="2" customWidth="1"/>
+    <col min="102" max="102" width="14.25" style="2" customWidth="1"/>
+    <col min="103" max="103" width="17.25" style="2" customWidth="1"/>
     <col min="104" max="104" width="10" style="2" customWidth="1"/>
     <col min="105" max="107" width="9" style="2"/>
     <col min="108" max="108" width="10" style="2" customWidth="1"/>
     <col min="109" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="350.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="Q1" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.299999999999997" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
-        <v>10000000000000</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="4">
         <v>44932</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N2" s="4">
         <v>44942</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="2">
         <v>5</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S2" s="2">
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U2" s="3">
         <v>10</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="40.299999999999997" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>10</v>
@@ -802,52 +811,52 @@
         <v>44932</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4">
         <v>44942</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="2">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S3" s="2">
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U3" s="3">
         <v>10</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="//f9Nip+IBmL4v3wlelHj5i3oAHLR6v3xPGhtWOhLlL0r6QewSJcB7NuVx69rGPn37ywKZZThKm4CBESy8B/+Q==" saltValue="leD4y0EtAKmXRcfr8jLDog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YYQTg2lBLiW9zjE4D2OBpmdOw1WrD3gTaL6RE0j6y8XEYliAO1ECiq83wy9hs0WR35YCw1rD0LjQmy9ibahfgQ==" saltValue="QRR15P6S/+t/ZPuV4LKuPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>